--- a/biology/Zoologie/Cassique_à_bec_mince/Cassique_à_bec_mince.xlsx
+++ b/biology/Zoologie/Cassique_à_bec_mince/Cassique_à_bec_mince.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_bec_mince</t>
+          <t>Cassique_à_bec_mince</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacicus microrhynchus
 Le Cassique à bec mince (Cacicus microrhynchus) est une espèce d'oiseaux de la famille des ictéridés qu’on retrouve en Amérique centrale et en Amérique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_bec_mince</t>
+          <t>Cassique_à_bec_mince</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux sous-espèces sont reconnues :
 C. u. microrhynchus  (Sclater &amp; Salvin, 1865)
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_bec_mince</t>
+          <t>Cassique_à_bec_mince</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique à bec mince se retrouve dans l’est du Honduras, au Nicaragua, au Costa Rica, au Panama, dans l’ouest de la Colombie et en Équateur.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_bec_mince</t>
+          <t>Cassique_à_bec_mince</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique à bec mince fréquente principalement les forêts tropicales humides vierges et les forêts secondaires.  Il tolère mal les coupes forestières et la déforestation a un impact négatif sur la population.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_bec_mince</t>
+          <t>Cassique_à_bec_mince</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique à bec mince s’observe en couple ou en petits groupes, souvent dans une volée mixte d’alimentation, notamment en compagnie du Gros-bec à face noire.  Il peut chercher sa nourriture dans toutes les strates de la forêt, mais il préfère la canopée.  Ce cassique a la particularité d’être peu farouche et s’approche volontiers des humains qui l’observent.
 </t>
